--- a/Week-2/RegExActivity/ApplicantInfo.xlsx
+++ b/Week-2/RegExActivity/ApplicantInfo.xlsx
@@ -1,183 +1,199 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
-  <workbookPr/>
+<x:workbook xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <x:fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <x:workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\Revature\Irving-Gonzalez-Code\Week-2\RegExActivity\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30784B68-BFB3-4A6E-B678-0B2DA4E91F06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="-22350" yWindow="2340" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
-  <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-  </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <x:bookViews>
+    <x:workbookView xWindow="-22350" yWindow="2340" windowWidth="21600" windowHeight="11385" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </x:bookViews>
+  <x:sheets>
+    <x:sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+  </x:sheets>
+  <x:definedNames/>
+  <x:calcPr calcId="162913"/>
+  <x:extLst>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
-</workbook>
+    </x:ext>
+  </x:extLst>
+</x:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
-  <si>
-    <t>First Name</t>
-  </si>
-  <si>
-    <t>Last Name</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>SSN</t>
-  </si>
-  <si>
-    <t>Phone Number</t>
-  </si>
-  <si>
-    <t>Valid Candidate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clark </t>
-  </si>
-  <si>
-    <t>Kent</t>
-  </si>
-  <si>
-    <t>iamsuperman@justiceleague.com</t>
-  </si>
-  <si>
-    <t>040-42-6841</t>
-  </si>
-  <si>
-    <t>920-430-6741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bruce </t>
-  </si>
-  <si>
-    <t>Wayne</t>
-  </si>
-  <si>
-    <t>wayne@wayneinc.com</t>
-  </si>
-  <si>
-    <t>confidential</t>
-  </si>
-  <si>
-    <t>123-IAM-BTMN</t>
-  </si>
-  <si>
-    <t>Leo</t>
-  </si>
-  <si>
-    <t>Hudson</t>
-  </si>
-  <si>
-    <t>scammer</t>
-  </si>
-  <si>
-    <t>555-55-5555</t>
-  </si>
-  <si>
-    <t>111-222-3333</t>
-  </si>
-  <si>
-    <t>Johnson</t>
-  </si>
-  <si>
-    <t>King</t>
-  </si>
-  <si>
-    <t>ikub@gmail.com</t>
-  </si>
-  <si>
-    <t>888-569-1338</t>
-  </si>
-  <si>
-    <t>444-62-0181</t>
-  </si>
-  <si>
-    <t>Jaiden</t>
-  </si>
-  <si>
-    <t>Heaney</t>
-  </si>
-  <si>
-    <t>walsh.quinton@hayes.biz</t>
-  </si>
-  <si>
-    <t>688-09-1346</t>
-  </si>
-</sst>
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+  <x:si>
+    <x:t>First Name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Last Name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Email</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SSN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Phone Number</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Valid Candidate</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Clark </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kent</x:t>
+  </x:si>
+  <x:si>
+    <x:t>iamsuperman@justiceleague.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>040-42-6841</x:t>
+  </x:si>
+  <x:si>
+    <x:t>920-430-6741</x:t>
+  </x:si>
+  <x:si>
+    <x:t>X</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Bruce </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wayne</x:t>
+  </x:si>
+  <x:si>
+    <x:t>wayne@wayneinc.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>confidential</x:t>
+  </x:si>
+  <x:si>
+    <x:t>123-IAM-BTMN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Leo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hudson</x:t>
+  </x:si>
+  <x:si>
+    <x:t>scammer</x:t>
+  </x:si>
+  <x:si>
+    <x:t>555-55-5555</x:t>
+  </x:si>
+  <x:si>
+    <x:t>111-222-3333</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Johnson</x:t>
+  </x:si>
+  <x:si>
+    <x:t>King</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ikub@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>444-62-0181</x:t>
+  </x:si>
+  <x:si>
+    <x:t>888-569-1338</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Jaiden</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Heaney</x:t>
+  </x:si>
+  <x:si>
+    <x:t>walsh.quinton@hayes.biz</x:t>
+  </x:si>
+  <x:si>
+    <x:t>688-09-1346</x:t>
+  </x:si>
+</x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-  </fonts>
-  <fills count="2">
-    <fill>
-      <patternFill patternType="none"/>
-    </fill>
-    <fill>
-      <patternFill patternType="gray125"/>
-    </fill>
-  </fills>
-  <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-  </borders>
-  <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-  </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-  </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-  </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+<x:styleSheet xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac x16r2 xr">
+  <x:numFmts count="1">
+    <x:numFmt numFmtId="0" formatCode=""/>
+  </x:numFmts>
+  <x:fonts count="3" x14ac:knownFonts="1">
+    <x:font>
+      <x:sz val="11"/>
+      <x:color theme="1"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
+      <x:scheme val="minor"/>
+    </x:font>
+    <x:font>
+      <x:u/>
+      <x:sz val="11"/>
+      <x:color theme="10"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
+      <x:scheme val="minor"/>
+    </x:font>
+    <x:font>
+      <x:vertAlign val="baseline"/>
+      <x:sz val="11"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
+    </x:font>
+  </x:fonts>
+  <x:fills count="2">
+    <x:fill>
+      <x:patternFill patternType="none"/>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="gray125"/>
+    </x:fill>
+  </x:fills>
+  <x:borders count="1">
+    <x:border>
+      <x:left/>
+      <x:right/>
+      <x:top/>
+      <x:bottom/>
+      <x:diagonal/>
+    </x:border>
+  </x:borders>
+  <x:cellStyleXfs count="3">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+  </x:cellStyleXfs>
+  <x:cellXfs count="2">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+  </x:cellXfs>
+  <x:cellStyles count="2">
+    <x:cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <x:cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </x:cellStyles>
+  <x:tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <x:extLst>
+    <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+    </x:ext>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
       <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
-</styleSheet>
+    </x:ext>
+  </x:extLst>
+</x:styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -442,132 +458,147 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F6"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{BB143C2F-FA04-4934-A00F-C4738FA8A78B}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{C515F73A-9902-4784-B501-452489525A69}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
-</worksheet>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A1:F6"/>
+  <x:sheetViews>
+    <x:sheetView tabSelected="1" workbookViewId="0">
+      <x:selection activeCell="F5" sqref="F5"/>
+    </x:sheetView>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <x:cols>
+    <x:col min="1" max="1" width="10.140625" style="0" bestFit="1" customWidth="1"/>
+    <x:col min="2" max="2" width="9.570312" style="0" bestFit="1" customWidth="1"/>
+    <x:col min="3" max="3" width="30.425781" style="0" bestFit="1" customWidth="1"/>
+    <x:col min="4" max="4" width="11.140625" style="0" bestFit="1" customWidth="1"/>
+    <x:col min="5" max="5" width="13.855469" style="0" bestFit="1" customWidth="1"/>
+  </x:cols>
+  <x:sheetData>
+    <x:row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <x:c r="A1" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B1" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C1" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D1" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="E1" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="F1" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <x:c r="A2" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="B2" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C2" s="1" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="D2" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="E2" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="F2" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <x:c r="A3" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B3" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C3" s="1" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D3" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="E3" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <x:c r="A4" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="B4" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="C4" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="D4" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="E4" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="F4" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <x:c r="A5" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="B5" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="C5" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="D5" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="E5" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="F5" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <x:c r="A6" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="B6" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="C6" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="D6" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:hyperlinks>
+    <x:hyperlink ref="C2" r:id="rId11"/>
+    <x:hyperlink ref="C3" r:id="rId12"/>
+  </x:hyperlinks>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="portrait" blackAndWhite="0" draft="0" cellComments="none" errors="displayed" r:id="rId3"/>
+  <x:headerFooter/>
+  <x:tableParts count="0"/>
+</x:worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
